--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.439247999999999</v>
+        <v>5.690303</v>
       </c>
       <c r="H2">
-        <v>13.317744</v>
+        <v>17.070909</v>
       </c>
       <c r="I2">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723209</v>
       </c>
       <c r="J2">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723208</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>104.9251675201546</v>
+        <v>10.91915846528567</v>
       </c>
       <c r="R2">
-        <v>944.3265076813918</v>
+        <v>98.272426187571</v>
       </c>
       <c r="S2">
-        <v>0.02180252146240675</v>
+        <v>0.002452385864604829</v>
       </c>
       <c r="T2">
-        <v>0.02180252146240675</v>
+        <v>0.002452385864604829</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.439247999999999</v>
+        <v>5.690303</v>
       </c>
       <c r="H3">
-        <v>13.317744</v>
+        <v>17.070909</v>
       </c>
       <c r="I3">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723209</v>
       </c>
       <c r="J3">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723208</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>804.7841286497172</v>
+        <v>1031.585877069241</v>
       </c>
       <c r="R3">
-        <v>7243.057157847455</v>
+        <v>9284.272893623167</v>
       </c>
       <c r="S3">
-        <v>0.1672270214304816</v>
+        <v>0.2316887909533966</v>
       </c>
       <c r="T3">
-        <v>0.1672270214304816</v>
+        <v>0.2316887909533965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.439247999999999</v>
+        <v>5.690303</v>
       </c>
       <c r="H4">
-        <v>13.317744</v>
+        <v>17.070909</v>
       </c>
       <c r="I4">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723209</v>
       </c>
       <c r="J4">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723208</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>133.8124270744213</v>
+        <v>165.2900570213837</v>
       </c>
       <c r="R4">
-        <v>1204.311843669792</v>
+        <v>1487.610513192453</v>
       </c>
       <c r="S4">
-        <v>0.02780503841146031</v>
+        <v>0.03712328204482768</v>
       </c>
       <c r="T4">
-        <v>0.02780503841146031</v>
+        <v>0.03712328204482768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.439247999999999</v>
+        <v>5.690303</v>
       </c>
       <c r="H5">
-        <v>13.317744</v>
+        <v>17.070909</v>
       </c>
       <c r="I5">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723209</v>
       </c>
       <c r="J5">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723208</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>493.2028781091572</v>
+        <v>465.8907433217827</v>
       </c>
       <c r="R5">
-        <v>4438.825902982415</v>
+        <v>4193.016689896044</v>
       </c>
       <c r="S5">
-        <v>0.1024831943511567</v>
+        <v>0.1046366235094918</v>
       </c>
       <c r="T5">
-        <v>0.1024831943511567</v>
+        <v>0.1046366235094918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.681579</v>
       </c>
       <c r="I6">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="J6">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>92.03447922372743</v>
+        <v>7.471951975477888</v>
       </c>
       <c r="R6">
-        <v>828.310313013547</v>
+        <v>67.24756777930099</v>
       </c>
       <c r="S6">
-        <v>0.01912395048758258</v>
+        <v>0.001678161322040005</v>
       </c>
       <c r="T6">
-        <v>0.01912395048758258</v>
+        <v>0.001678161322040005</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.681579</v>
       </c>
       <c r="I7">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="J7">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>705.9115550477495</v>
@@ -883,10 +883,10 @@
         <v>6353.203995429746</v>
       </c>
       <c r="S7">
-        <v>0.1466821754326307</v>
+        <v>0.1585440420856667</v>
       </c>
       <c r="T7">
-        <v>0.1466821754326306</v>
+        <v>0.1585440420856667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.681579</v>
       </c>
       <c r="I8">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="J8">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>117.3727650908135</v>
+        <v>113.1075597093159</v>
       </c>
       <c r="R8">
-        <v>1056.354885817322</v>
+        <v>1017.968037383843</v>
       </c>
       <c r="S8">
-        <v>0.024389022104758</v>
+        <v>0.02540336615618629</v>
       </c>
       <c r="T8">
-        <v>0.024389022104758</v>
+        <v>0.0254033661561863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.681579</v>
       </c>
       <c r="I9">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="J9">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>432.6099363119978</v>
+        <v>318.8078340457515</v>
       </c>
       <c r="R9">
-        <v>3893.48942680798</v>
+        <v>2869.270506411764</v>
       </c>
       <c r="S9">
-        <v>0.08989251715496187</v>
+        <v>0.07160257159237306</v>
       </c>
       <c r="T9">
-        <v>0.08989251715496187</v>
+        <v>0.07160257159237306</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.833976</v>
+        <v>4.648693333333333</v>
       </c>
       <c r="H10">
-        <v>11.501928</v>
+        <v>13.94608</v>
       </c>
       <c r="I10">
-        <v>0.2757801970596353</v>
+        <v>0.3070924088957991</v>
       </c>
       <c r="J10">
-        <v>0.2757801970596353</v>
+        <v>0.307092408895799</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>90.61908099485599</v>
+        <v>8.920407079057776</v>
       </c>
       <c r="R10">
-        <v>815.571728953704</v>
+        <v>80.28366371151998</v>
       </c>
       <c r="S10">
-        <v>0.01882984325866732</v>
+        <v>0.002003476760297189</v>
       </c>
       <c r="T10">
-        <v>0.01882984325866732</v>
+        <v>0.002003476760297188</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.833976</v>
+        <v>4.648693333333333</v>
       </c>
       <c r="H11">
-        <v>11.501928</v>
+        <v>13.94608</v>
       </c>
       <c r="I11">
-        <v>0.2757801970596353</v>
+        <v>0.3070924088957991</v>
       </c>
       <c r="J11">
-        <v>0.2757801970596353</v>
+        <v>0.307092408895799</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>695.055341450608</v>
+        <v>842.7541362019912</v>
       </c>
       <c r="R11">
-        <v>6255.498073055472</v>
+        <v>7584.78722581792</v>
       </c>
       <c r="S11">
-        <v>0.1444263502998599</v>
+        <v>0.1892781698818349</v>
       </c>
       <c r="T11">
-        <v>0.1444263502998598</v>
+        <v>0.1892781698818349</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.833976</v>
+        <v>4.648693333333333</v>
       </c>
       <c r="H12">
-        <v>11.501928</v>
+        <v>13.94608</v>
       </c>
       <c r="I12">
-        <v>0.2757801970596353</v>
+        <v>0.3070924088957991</v>
       </c>
       <c r="J12">
-        <v>0.2757801970596353</v>
+        <v>0.307092408895799</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>115.567689371056</v>
+        <v>135.0337207248178</v>
       </c>
       <c r="R12">
-        <v>1040.109204339504</v>
+        <v>1215.30348652336</v>
       </c>
       <c r="S12">
-        <v>0.02401394334099311</v>
+        <v>0.03032786720728992</v>
       </c>
       <c r="T12">
-        <v>0.02401394334099311</v>
+        <v>0.03032786720728992</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.833976</v>
+        <v>4.648693333333333</v>
       </c>
       <c r="H13">
-        <v>11.501928</v>
+        <v>13.94608</v>
       </c>
       <c r="I13">
-        <v>0.2757801970596353</v>
+        <v>0.3070924088957991</v>
       </c>
       <c r="J13">
-        <v>0.2757801970596353</v>
+        <v>0.307092408895799</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>425.956828228888</v>
+        <v>380.6094671130311</v>
       </c>
       <c r="R13">
-        <v>3833.611454059992</v>
+        <v>3425.48520401728</v>
       </c>
       <c r="S13">
-        <v>0.08851006016011502</v>
+        <v>0.08548289504637704</v>
       </c>
       <c r="T13">
-        <v>0.08851006016011502</v>
+        <v>0.08548289504637703</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.735205333333333</v>
+        <v>0.9049109999999999</v>
       </c>
       <c r="H14">
-        <v>5.205616</v>
+        <v>2.714733</v>
       </c>
       <c r="I14">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="J14">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>41.01296216878755</v>
+        <v>1.736439449003</v>
       </c>
       <c r="R14">
-        <v>369.116659519088</v>
+        <v>15.627955041027</v>
       </c>
       <c r="S14">
-        <v>0.008522130667555104</v>
+        <v>0.0003899952155668021</v>
       </c>
       <c r="T14">
-        <v>0.008522130667555104</v>
+        <v>0.0003899952155668021</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.735205333333333</v>
+        <v>0.9049109999999999</v>
       </c>
       <c r="H15">
-        <v>5.205616</v>
+        <v>2.714733</v>
       </c>
       <c r="I15">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="J15">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>314.5725835130204</v>
+        <v>164.049859489838</v>
       </c>
       <c r="R15">
-        <v>2831.153251617184</v>
+        <v>1476.448735408542</v>
       </c>
       <c r="S15">
-        <v>0.06536539960453198</v>
+        <v>0.03684474016769037</v>
       </c>
       <c r="T15">
-        <v>0.06536539960453197</v>
+        <v>0.03684474016769037</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.735205333333333</v>
+        <v>0.9049109999999999</v>
       </c>
       <c r="H16">
-        <v>5.205616</v>
+        <v>2.714733</v>
       </c>
       <c r="I16">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="J16">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>52.30436261407644</v>
+        <v>26.285558218829</v>
       </c>
       <c r="R16">
-        <v>470.7392635266879</v>
+        <v>236.570023969461</v>
       </c>
       <c r="S16">
-        <v>0.01086838377696045</v>
+        <v>0.005903598855538458</v>
       </c>
       <c r="T16">
-        <v>0.01086838377696045</v>
+        <v>0.005903598855538459</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.735205333333333</v>
+        <v>0.9049109999999999</v>
       </c>
       <c r="H17">
-        <v>5.205616</v>
+        <v>2.714733</v>
       </c>
       <c r="I17">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="J17">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>192.7822605338471</v>
+        <v>74.08914049569199</v>
       </c>
       <c r="R17">
-        <v>1735.040344804624</v>
+        <v>666.802264461228</v>
       </c>
       <c r="S17">
-        <v>0.04005844805587875</v>
+        <v>0.01664003333681839</v>
       </c>
       <c r="T17">
-        <v>0.04005844805587875</v>
+        <v>0.01664003333681839</v>
       </c>
     </row>
   </sheetData>
